--- a/PSMLib/PSMLib封装库命名规则.xlsx
+++ b/PSMLib/PSMLib封装库命名规则.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
   <si>
     <t>电容</t>
   </si>
@@ -477,6 +477,10 @@
   </si>
   <si>
     <t>CAPC+封装大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XTAL+型号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +858,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -993,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4">

--- a/PSMLib/PSMLib封装库命名规则.xlsx
+++ b/PSMLib/PSMLib封装库命名规则.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="7830"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="147">
   <si>
     <t>电容</t>
   </si>
@@ -481,14 +481,46 @@
   </si>
   <si>
     <t>XTAL+型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPFP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP+引脚间距P+体长X体宽X体高-引脚数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hd+引脚间距P-横向引脚数量X竖向引脚数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh+引脚间距P-横向引脚数量X竖向引脚数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC插座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcin+外径D内径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,10 +583,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +607,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -645,6 +681,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -679,6 +716,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -854,37 +892,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="48.75" customWidth="1"/>
     <col min="4" max="4" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -894,7 +932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -902,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -913,7 +951,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -921,7 +959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -929,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -937,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -948,7 +986,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -959,8 +997,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
@@ -970,8 +1008,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -981,13 +1019,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
@@ -1000,8 +1038,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
@@ -1014,8 +1052,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
@@ -1028,8 +1066,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
@@ -1042,7 +1080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>35</v>
       </c>
@@ -1053,7 +1091,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>36</v>
       </c>
@@ -1064,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>41</v>
       </c>
@@ -1072,8 +1110,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
@@ -1086,8 +1124,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
@@ -1100,7 +1138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>35</v>
       </c>
@@ -1108,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>46</v>
       </c>
@@ -1119,7 +1157,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>47</v>
       </c>
@@ -1127,7 +1165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -1135,26 +1173,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
@@ -1167,7 +1205,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -1175,7 +1213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>59</v>
       </c>
@@ -1183,8 +1221,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B33" t="s">
@@ -1194,7 +1232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>64</v>
       </c>
@@ -1202,7 +1240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>65</v>
       </c>
@@ -1210,7 +1248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1218,8 +1256,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B37" t="s">
@@ -1229,13 +1267,13 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C39" t="s">
@@ -1245,233 +1283,268 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>113</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>34</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>133</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
-      <c r="B46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
-      <c r="B47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="B48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
         <v>81</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>132</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4"/>
-      <c r="B49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
         <v>82</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="B50" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
         <v>89</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
-      <c r="B51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
         <v>93</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="3" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>114</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>115</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="3" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>99</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>98</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1482,12 +1555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1495,12 +1568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSMLib/PSMLib封装库命名规则.xlsx
+++ b/PSMLib/PSMLib封装库命名规则.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="148">
   <si>
     <t>电容</t>
   </si>
@@ -513,6 +513,10 @@
   </si>
   <si>
     <t>dcin+外径D内径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INDM+体长+体宽X体高</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -895,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1143,6 +1147,9 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
     </row>
